--- a/output/senior/5_count.xlsx
+++ b/output/senior/5_count.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ans_str</t>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>['B_A', 'C_A', 'G_F', 'D_B', 'E_B']</t>
@@ -383,41 +386,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>5</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>

--- a/output/senior/5_count.xlsx
+++ b/output/senior/5_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>list</t>
   </si>
@@ -22,6 +22,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>['B_A', 'C_A', 'G_F', 'D_B', 'E_B']</t>
   </si>
   <si>
@@ -29,6 +32,12 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -386,51 +395,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>390</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
